--- a/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
+++ b/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="345">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1934,7 +1934,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2101,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2167,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2230,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2328,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2495,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2570,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2756,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2880,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2946,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3002,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3077,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3120,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3186,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3242,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3340,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3469,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3847,12 +3847,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K635"/>
+  <dimension ref="A2:K637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A600" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A621" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D614" sqref="D614"/>
+      <selection pane="bottomLeft" activeCell="D635" sqref="D635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4015,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>158.05400000000003</v>
+        <v>159.55400000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4025,7 +4025,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>160.208</v>
+        <v>160.708</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17971,15 +17971,17 @@
       <c r="B631" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39">
         <v>1</v>
       </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
@@ -18014,25 +18016,33 @@
       <c r="A633" s="40">
         <v>45200</v>
       </c>
-      <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
-      <c r="D633" s="39"/>
+      <c r="B633" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D633" s="39">
+        <v>1</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="49">
+        <v>45223</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B634" s="20"/>
+      <c r="A634" s="40"/>
+      <c r="B634" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
@@ -18041,16 +18051,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H634" s="39"/>
+      <c r="H634" s="39">
+        <v>1</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
+      <c r="K634" s="49">
+        <v>45204</v>
+      </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B635" s="20"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
@@ -18059,10 +18073,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="39"/>
+      <c r="H635" s="39">
+        <v>1</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="49">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="39"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="39"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="39"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
